--- a/ldlafit.xlsx
+++ b/ldlafit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -267,9 +267,15 @@
     <t xml:space="preserve">institution_trust_5</t>
   </si>
   <si>
+    <t xml:space="preserve">d1</t>
+  </si>
+  <si>
     <t xml:space="preserve">39</t>
   </si>
   <si>
+    <t xml:space="preserve">d2</t>
+  </si>
+  <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
@@ -556,6 +562,78 @@
   </si>
   <si>
     <t xml:space="preserve">c4*b4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind1+d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind2+d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind3+d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind4+d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind5+d2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind6+d2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind7+d2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind8+d2</t>
   </si>
   <si>
     <t xml:space="preserve">est.std</t>
@@ -2674,7 +2752,7 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="F39" t="n">
         <v>-0.0594129873153133</v>
@@ -2697,7 +2775,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>82</v>
@@ -2709,7 +2787,7 @@
         <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F40" t="n">
         <v>0.0386744602996523</v>
@@ -2732,7 +2810,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
         <v>82</v>
@@ -2767,7 +2845,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
         <v>82</v>
@@ -2802,7 +2880,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
         <v>82</v>
@@ -2814,7 +2892,7 @@
         <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F43" t="n">
         <v>-0.227604079973346</v>
@@ -2837,7 +2915,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
         <v>82</v>
@@ -2849,7 +2927,7 @@
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F44" t="n">
         <v>0.428871268868516</v>
@@ -2872,7 +2950,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
         <v>82</v>
@@ -2884,7 +2962,7 @@
         <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F45" t="n">
         <v>0.0993074515930625</v>
@@ -2907,7 +2985,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
@@ -2919,7 +2997,7 @@
         <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F46" t="n">
         <v>-0.208031011234045</v>
@@ -2942,7 +3020,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>82</v>
@@ -2977,7 +3055,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
@@ -3012,7 +3090,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
@@ -3047,13 +3125,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
         <v>31</v>
@@ -3082,13 +3160,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
         <v>28</v>
@@ -3117,13 +3195,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
@@ -3152,13 +3230,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
         <v>31</v>
@@ -3187,13 +3265,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
         <v>28</v>
@@ -3222,13 +3300,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
         <v>31</v>
@@ -3257,13 +3335,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
         <v>53</v>
@@ -3292,13 +3370,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
@@ -3327,13 +3405,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
         <v>16</v>
@@ -3362,13 +3440,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -3397,13 +3475,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
         <v>20</v>
@@ -3432,13 +3510,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -3463,13 +3541,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -3494,13 +3572,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
         <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -3525,13 +3603,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
         <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
         <v>32</v>
@@ -3556,13 +3634,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
         <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -3591,13 +3669,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
         <v>37</v>
@@ -3626,13 +3704,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
         <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
         <v>39</v>
@@ -3661,13 +3739,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
         <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
         <v>42</v>
@@ -3696,13 +3774,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
         <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
         <v>44</v>
@@ -3731,13 +3809,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
         <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
         <v>46</v>
@@ -3766,13 +3844,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
         <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D71" t="s">
         <v>82</v>
@@ -3801,13 +3879,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
         <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D72" t="s">
         <v>53</v>
@@ -3836,13 +3914,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -3871,13 +3949,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
         <v>22</v>
@@ -3906,13 +3984,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D75" t="s">
         <v>25</v>
@@ -3941,13 +4019,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
         <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
         <v>28</v>
@@ -3976,13 +4054,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D77" t="s">
         <v>31</v>
@@ -4011,13 +4089,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
         <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D78" t="s">
         <v>34</v>
@@ -4046,13 +4124,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
         <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
@@ -4081,13 +4159,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
         <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D80" t="s">
         <v>41</v>
@@ -4116,13 +4194,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s">
         <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D81" t="s">
         <v>51</v>
@@ -4147,13 +4225,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D82" t="s">
         <v>0</v>
@@ -4182,13 +4260,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
         <v>0</v>
@@ -4217,13 +4295,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D84" t="s">
         <v>0</v>
@@ -4252,13 +4330,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D85" t="s">
         <v>0</v>
@@ -4287,13 +4365,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s">
         <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
         <v>0</v>
@@ -4322,13 +4400,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D87" t="s">
         <v>0</v>
@@ -4357,13 +4435,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
         <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
         <v>0</v>
@@ -4392,13 +4470,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
         <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
         <v>0</v>
@@ -4427,13 +4505,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B90" t="s">
         <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D90" t="s">
         <v>0</v>
@@ -4462,13 +4540,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D91" t="s">
         <v>0</v>
@@ -4497,13 +4575,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B92" t="s">
         <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D92" t="s">
         <v>0</v>
@@ -4532,13 +4610,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
         <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D93" t="s">
         <v>0</v>
@@ -4567,13 +4645,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" t="s">
         <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D94" t="s">
         <v>0</v>
@@ -4602,13 +4680,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
         <v>46</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D95" t="s">
         <v>0</v>
@@ -4637,13 +4715,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B96" t="s">
         <v>82</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D96" t="s">
         <v>0</v>
@@ -4672,13 +4750,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
         <v>53</v>
       </c>
       <c r="C97" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D97" t="s">
         <v>0</v>
@@ -4707,13 +4785,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
         <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D98" t="s">
         <v>0</v>
@@ -4738,13 +4816,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D99" t="s">
         <v>0</v>
@@ -4769,13 +4847,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
       </c>
       <c r="C100" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D100" t="s">
         <v>0</v>
@@ -4800,13 +4878,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B101" t="s">
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D101" t="s">
         <v>0</v>
@@ -4831,13 +4909,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B102" t="s">
         <v>28</v>
       </c>
       <c r="C102" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D102" t="s">
         <v>0</v>
@@ -4862,13 +4940,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B103" t="s">
         <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D103" t="s">
         <v>0</v>
@@ -4893,13 +4971,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B104" t="s">
         <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D104" t="s">
         <v>0</v>
@@ -4924,13 +5002,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D105" t="s">
         <v>0</v>
@@ -4955,19 +5033,19 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D106" t="s">
+        <v>160</v>
+      </c>
+      <c r="E106" t="s">
         <v>158</v>
-      </c>
-      <c r="E106" t="s">
-        <v>156</v>
       </c>
       <c r="F106" t="n">
         <v>-0.0376689049946413</v>
@@ -4990,19 +5068,19 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" t="s">
         <v>159</v>
       </c>
-      <c r="B107" t="s">
-        <v>160</v>
-      </c>
-      <c r="C107" t="s">
-        <v>157</v>
-      </c>
       <c r="D107" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E107" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F107" t="n">
         <v>-0.0368589964891408</v>
@@ -5025,19 +5103,19 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B108" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D108" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E108" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F108" t="n">
         <v>-0.0115668582452217</v>
@@ -5060,19 +5138,19 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C109" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D109" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E109" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F109" t="n">
         <v>-0.015263157702849</v>
@@ -5095,19 +5173,19 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D110" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E110" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F110" t="n">
         <v>-0.0325246431250786</v>
@@ -5130,19 +5208,19 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D111" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E111" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F111" t="n">
         <v>0.0515314971064742</v>
@@ -5165,19 +5243,19 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E112" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F112" t="n">
         <v>0.00403361783859078</v>
@@ -5200,19 +5278,19 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C113" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D113" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E113" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F113" t="n">
         <v>-0.0000960782691999983</v>
@@ -5231,6 +5309,286 @@
       </c>
       <c r="K113" t="n">
         <v>0.0154833027597765</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>182</v>
+      </c>
+      <c r="B114" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114" t="s">
+        <v>184</v>
+      </c>
+      <c r="E114" t="s">
+        <v>183</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.0970818923099546</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0664893440475317</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-1.46011204803815</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.144259281943282</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-0.228261741934381</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.0337100485734573</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" t="s">
+        <v>159</v>
+      </c>
+      <c r="D115" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115" t="s">
+        <v>186</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.0962719838044541</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0678702610098113</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-1.41847080550548</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.15605335631903</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.230939661503047</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.0345315422838685</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>188</v>
+      </c>
+      <c r="B116" t="s">
+        <v>189</v>
+      </c>
+      <c r="C116" t="s">
+        <v>159</v>
+      </c>
+      <c r="D116" t="s">
+        <v>190</v>
+      </c>
+      <c r="E116" t="s">
+        <v>189</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.070979845560535</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0649181801649172</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-1.09337392669078</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.274229656494563</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0.201131909036979</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.0579939669035389</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" t="s">
+        <v>193</v>
+      </c>
+      <c r="E117" t="s">
+        <v>192</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.0746761450181624</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0652198120992717</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-1.14499172282951</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.252212586147384</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-0.203470194121307</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.0538170886798253</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" t="s">
+        <v>159</v>
+      </c>
+      <c r="D118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E118" t="s">
+        <v>195</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.00614981717457367</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0633247031731006</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.0971156099660334</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.922634584498399</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.118327823902837</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.129603707707763</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>197</v>
+      </c>
+      <c r="B119" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" t="s">
+        <v>199</v>
+      </c>
+      <c r="E119" t="s">
+        <v>198</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0902059574061265</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0674949337417235</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.33648486494274</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.181390844213239</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.0462144968188668</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.221662625847807</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" t="s">
+        <v>201</v>
+      </c>
+      <c r="C120" t="s">
+        <v>159</v>
+      </c>
+      <c r="D120" t="s">
+        <v>202</v>
+      </c>
+      <c r="E120" t="s">
+        <v>201</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0427080781382431</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0625939646123351</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.682303452141882</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.495047090645744</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.0844021606526641</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.162971089424783</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>203</v>
+      </c>
+      <c r="B121" t="s">
+        <v>204</v>
+      </c>
+      <c r="C121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D121" t="s">
+        <v>205</v>
+      </c>
+      <c r="E121" t="s">
+        <v>204</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0385783820304523</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0644436658230475</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.59863729875924</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.549414777749524</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0.0940106786583996</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.159983611719533</v>
       </c>
     </row>
   </sheetData>
@@ -5264,7 +5622,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -6575,7 +6933,7 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="F39" t="n">
         <v>-0.0551452298439224</v>
@@ -6598,7 +6956,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>82</v>
@@ -6610,7 +6968,7 @@
         <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F40" t="n">
         <v>0.0318168877493972</v>
@@ -6633,7 +6991,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
         <v>82</v>
@@ -6668,7 +7026,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
         <v>82</v>
@@ -6703,7 +7061,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
         <v>82</v>
@@ -6715,7 +7073,7 @@
         <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F43" t="n">
         <v>-0.176967268762727</v>
@@ -6738,7 +7096,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
         <v>82</v>
@@ -6750,7 +7108,7 @@
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F44" t="n">
         <v>0.347298047492637</v>
@@ -6773,7 +7131,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
         <v>82</v>
@@ -6785,7 +7143,7 @@
         <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F45" t="n">
         <v>0.060662467933405</v>
@@ -6808,7 +7166,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
@@ -6820,7 +7178,7 @@
         <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F46" t="n">
         <v>-0.0963876525539367</v>
@@ -6843,7 +7201,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>82</v>
@@ -6878,7 +7236,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
@@ -6913,7 +7271,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
@@ -6948,13 +7306,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
         <v>31</v>
@@ -6983,13 +7341,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
         <v>28</v>
@@ -7018,13 +7376,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
@@ -7053,13 +7411,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
         <v>31</v>
@@ -7088,13 +7446,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
         <v>28</v>
@@ -7123,13 +7481,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
         <v>31</v>
@@ -7158,13 +7516,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
         <v>53</v>
@@ -7193,13 +7551,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
@@ -7228,13 +7586,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
         <v>16</v>
@@ -7263,13 +7621,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -7298,13 +7656,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
         <v>20</v>
@@ -7333,13 +7691,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -7364,13 +7722,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -7395,13 +7753,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
         <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -7426,13 +7784,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
         <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
         <v>32</v>
@@ -7457,13 +7815,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
         <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -7492,13 +7850,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
         <v>37</v>
@@ -7527,13 +7885,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
         <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
         <v>39</v>
@@ -7562,13 +7920,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
         <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
         <v>42</v>
@@ -7597,13 +7955,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
         <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
         <v>44</v>
@@ -7632,13 +7990,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
         <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
         <v>46</v>
@@ -7667,13 +8025,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
         <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D71" t="s">
         <v>82</v>
@@ -7702,13 +8060,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
         <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D72" t="s">
         <v>53</v>
@@ -7737,13 +8095,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -7772,13 +8130,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
         <v>22</v>
@@ -7807,13 +8165,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D75" t="s">
         <v>25</v>
@@ -7842,13 +8200,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
         <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
         <v>28</v>
@@ -7877,13 +8235,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D77" t="s">
         <v>31</v>
@@ -7912,13 +8270,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
         <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D78" t="s">
         <v>34</v>
@@ -7943,13 +8301,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
         <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
@@ -7974,13 +8332,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
         <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D80" t="s">
         <v>41</v>
@@ -8009,13 +8367,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s">
         <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D81" t="s">
         <v>51</v>
@@ -8040,13 +8398,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D82" t="s">
         <v>0</v>
@@ -8075,13 +8433,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
         <v>0</v>
@@ -8110,13 +8468,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D84" t="s">
         <v>0</v>
@@ -8145,13 +8503,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D85" t="s">
         <v>0</v>
@@ -8180,13 +8538,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s">
         <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
         <v>0</v>
@@ -8215,13 +8573,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D87" t="s">
         <v>0</v>
@@ -8250,13 +8608,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
         <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
         <v>0</v>
@@ -8285,13 +8643,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
         <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
         <v>0</v>
@@ -8320,13 +8678,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B90" t="s">
         <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D90" t="s">
         <v>0</v>
@@ -8355,13 +8713,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D91" t="s">
         <v>0</v>
@@ -8390,13 +8748,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B92" t="s">
         <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D92" t="s">
         <v>0</v>
@@ -8425,13 +8783,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
         <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D93" t="s">
         <v>0</v>
@@ -8460,13 +8818,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" t="s">
         <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D94" t="s">
         <v>0</v>
@@ -8495,13 +8853,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
         <v>46</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D95" t="s">
         <v>0</v>
@@ -8530,13 +8888,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B96" t="s">
         <v>82</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D96" t="s">
         <v>0</v>
@@ -8565,13 +8923,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
         <v>53</v>
       </c>
       <c r="C97" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D97" t="s">
         <v>0</v>
@@ -8600,13 +8958,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
         <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D98" t="s">
         <v>0</v>
@@ -8631,13 +8989,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D99" t="s">
         <v>0</v>
@@ -8662,13 +9020,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
       </c>
       <c r="C100" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D100" t="s">
         <v>0</v>
@@ -8693,13 +9051,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B101" t="s">
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D101" t="s">
         <v>0</v>
@@ -8724,13 +9082,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B102" t="s">
         <v>28</v>
       </c>
       <c r="C102" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D102" t="s">
         <v>0</v>
@@ -8755,13 +9113,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B103" t="s">
         <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D103" t="s">
         <v>0</v>
@@ -8786,13 +9144,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B104" t="s">
         <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D104" t="s">
         <v>0</v>
@@ -8817,13 +9175,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D105" t="s">
         <v>0</v>
@@ -8848,19 +9206,19 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D106" t="s">
+        <v>160</v>
+      </c>
+      <c r="E106" t="s">
         <v>158</v>
-      </c>
-      <c r="E106" t="s">
-        <v>156</v>
       </c>
       <c r="F106" t="n">
         <v>-0.034963069823001</v>
@@ -8883,19 +9241,19 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" t="s">
         <v>159</v>
       </c>
-      <c r="B107" t="s">
-        <v>160</v>
-      </c>
-      <c r="C107" t="s">
-        <v>157</v>
-      </c>
       <c r="D107" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E107" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F107" t="n">
         <v>-0.0342113387166127</v>
@@ -8918,19 +9276,19 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B108" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D108" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E108" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F108" t="n">
         <v>-0.0107359869504561</v>
@@ -8953,19 +9311,19 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C109" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D109" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E109" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F109" t="n">
         <v>-0.0141667735911119</v>
@@ -8988,19 +9346,19 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D110" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E110" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F110" t="n">
         <v>-0.0267575270962252</v>
@@ -9023,19 +9381,19 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D111" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E111" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F111" t="n">
         <v>0.0423941755435388</v>
@@ -9058,19 +9416,19 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E112" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F112" t="n">
         <v>0.00331839578367854</v>
@@ -9093,19 +9451,19 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C113" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D113" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E113" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F113" t="n">
         <v>-0.0000790421245082042</v>
@@ -9124,6 +9482,286 @@
       </c>
       <c r="K113" t="n">
         <v>0.0106842086255364</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>182</v>
+      </c>
+      <c r="B114" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114" t="s">
+        <v>184</v>
+      </c>
+      <c r="E114" t="s">
+        <v>183</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.0901082996669234</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0613266589218094</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-1.4693169536891</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.141746840488859</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-0.210306342445842</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.030089743111995</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" t="s">
+        <v>159</v>
+      </c>
+      <c r="D115" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115" t="s">
+        <v>186</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.0893565685605352</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0626804317599544</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-1.42558955086241</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.153986854184624</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.212207957345466</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.0334948202243961</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>188</v>
+      </c>
+      <c r="B116" t="s">
+        <v>189</v>
+      </c>
+      <c r="C116" t="s">
+        <v>159</v>
+      </c>
+      <c r="D116" t="s">
+        <v>190</v>
+      </c>
+      <c r="E116" t="s">
+        <v>189</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.0658812167943786</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0598048826249007</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-1.10160264350971</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.270634458575115</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0.183096632838829</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.0513341992500721</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" t="s">
+        <v>193</v>
+      </c>
+      <c r="E117" t="s">
+        <v>192</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.0693120034350343</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0601400710347896</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-1.15250950393688</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.249111766611173</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-0.187184376690902</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.0485603698208337</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" t="s">
+        <v>159</v>
+      </c>
+      <c r="D118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E118" t="s">
+        <v>195</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.00505936065317206</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0521494357861682</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.0970165942718402</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.922713216290525</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.0971516553018018</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.107270376608146</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>197</v>
+      </c>
+      <c r="B119" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" t="s">
+        <v>199</v>
+      </c>
+      <c r="E119" t="s">
+        <v>198</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.074211063292936</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0556685520306033</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.33308772342667</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.18250301764234</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.0348972937585405</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.183319420344413</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" t="s">
+        <v>201</v>
+      </c>
+      <c r="C120" t="s">
+        <v>159</v>
+      </c>
+      <c r="D120" t="s">
+        <v>202</v>
+      </c>
+      <c r="E120" t="s">
+        <v>201</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0351352835330758</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0515853199927108</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.681110120825857</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.495801813532502</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.0659700857836114</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.136240652849763</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>203</v>
+      </c>
+      <c r="B121" t="s">
+        <v>204</v>
+      </c>
+      <c r="C121" t="s">
+        <v>159</v>
+      </c>
+      <c r="D121" t="s">
+        <v>205</v>
+      </c>
+      <c r="E121" t="s">
+        <v>204</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.031737845624889</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0531092893107471</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.597594997726069</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.550110202795015</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0.0723544486686933</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.135830139918471</v>
       </c>
     </row>
   </sheetData>
@@ -9145,58 +9783,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="G1" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="H1" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="J1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="K1" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="N1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="P1" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="Q1" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="S1" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
@@ -9255,7 +9893,7 @@
         <v>0.175117916712611</v>
       </c>
       <c r="S2" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
@@ -9314,7 +9952,7 @@
         <v>0.16256251232721</v>
       </c>
       <c r="S3" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4">
@@ -9373,7 +10011,7 @@
         <v>0.184780242936023</v>
       </c>
       <c r="S4" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5">
@@ -9432,7 +10070,7 @@
         <v>0.157726654271449</v>
       </c>
       <c r="S5" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6">
@@ -9491,7 +10129,7 @@
         <v>-0.0393560281813514</v>
       </c>
       <c r="S6" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
@@ -9550,7 +10188,7 @@
         <v>-0.0204963596637044</v>
       </c>
       <c r="S7" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
@@ -9609,7 +10247,7 @@
         <v>0.00767189654519401</v>
       </c>
       <c r="S8" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9">
@@ -9668,7 +10306,7 @@
         <v>0.0156579730238698</v>
       </c>
       <c r="S9" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10">
@@ -9727,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -9786,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -9845,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -9904,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
@@ -9963,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15">
@@ -10022,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
@@ -10081,7 +10719,7 @@
         <v>-0.0496058269650937</v>
       </c>
       <c r="S16" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17">
@@ -10140,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18">
@@ -10199,7 +10837,7 @@
         <v>0.25</v>
       </c>
       <c r="S18" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -10221,61 +10859,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" t="s">
         <v>216</v>
       </c>
-      <c r="C1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L1" t="s">
-        <v>190</v>
-      </c>
       <c r="M1" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="N1" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="O1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="P1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="Q1" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="R1" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="S1" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="T1" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
@@ -10283,7 +10921,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C2" t="n">
         <v>0.00932759608019662</v>
@@ -10337,7 +10975,7 @@
         <v>0.0364205448258506</v>
       </c>
       <c r="T2" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3">
@@ -10345,7 +10983,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C3" t="n">
         <v>0.110148947669133</v>
@@ -10399,7 +11037,7 @@
         <v>-0.00131990877691485</v>
       </c>
       <c r="T3" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4">
@@ -10407,7 +11045,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C4" t="n">
         <v>0.0180999582138242</v>
@@ -10461,7 +11099,7 @@
         <v>0.0104860292533256</v>
       </c>
       <c r="T4" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
@@ -10469,7 +11107,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C5" t="n">
         <v>-0.155729352149513</v>
@@ -10523,7 +11161,7 @@
         <v>-0.040862748946005</v>
       </c>
       <c r="T5" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
@@ -10531,7 +11169,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C6" t="n">
         <v>-0.0129481519187905</v>
@@ -10585,7 +11223,7 @@
         <v>-0.0109398298068143</v>
       </c>
       <c r="T6" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7">
@@ -10593,7 +11231,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C7" t="n">
         <v>-0.0239788551754556</v>
@@ -10647,7 +11285,7 @@
         <v>-0.00613085927120684</v>
       </c>
       <c r="T7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8">
@@ -10655,7 +11293,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C8" t="n">
         <v>-0.0249330070381532</v>
@@ -10709,7 +11347,7 @@
         <v>0.00120384309977639</v>
       </c>
       <c r="T8" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
@@ -10717,7 +11355,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C9" t="n">
         <v>0.00899254767476687</v>
@@ -10771,7 +11409,7 @@
         <v>-0.00382365349724261</v>
       </c>
       <c r="T9" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10">
@@ -10779,7 +11417,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C10" t="n">
         <v>-0.150525622535358</v>
@@ -10833,7 +11471,7 @@
         <v>-0.0207100591715976</v>
       </c>
       <c r="T10" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11">
@@ -10841,7 +11479,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C11" t="n">
         <v>0.25781801258039</v>
@@ -10895,7 +11533,7 @@
         <v>0.00739644970414188</v>
       </c>
       <c r="T11" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12">
@@ -10903,7 +11541,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C12" t="n">
         <v>-0.0528677264184979</v>
@@ -10957,7 +11595,7 @@
         <v>-0.0207100591715976</v>
       </c>
       <c r="T12" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13">
@@ -10965,7 +11603,7 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C13" t="n">
         <v>0.0452776796006305</v>
@@ -11019,7 +11657,7 @@
         <v>-0.0355029585798816</v>
       </c>
       <c r="T13" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14">
@@ -11027,7 +11665,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C14" t="n">
         <v>-0.04597964327335</v>
@@ -11081,7 +11719,7 @@
         <v>-0.0236686390532546</v>
       </c>
       <c r="T14" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15">
@@ -11089,7 +11727,7 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C15" t="n">
         <v>-0.124153744728658</v>
@@ -11143,7 +11781,7 @@
         <v>-0.0340236686390534</v>
       </c>
       <c r="T15" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16">
@@ -11151,7 +11789,7 @@
         <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C16" t="n">
         <v>0.025127454761956</v>
@@ -11205,7 +11843,7 @@
         <v>-0.00808648072721399</v>
       </c>
       <c r="T16" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17">
@@ -11213,7 +11851,7 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C17" t="n">
         <v>0.0702740111524645</v>
@@ -11267,7 +11905,7 @@
         <v>-0.0236686390532546</v>
       </c>
       <c r="T17" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18">
@@ -11275,7 +11913,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C18" t="n">
         <v>0.0364205448258506</v>
@@ -11329,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -11351,39 +11989,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
@@ -11391,407 +12029,407 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="B27" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="B47" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="B56" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
